--- a/data/PENDAFTARAN KOLEKTIF_Cybersecurity Training JABAR (1).xlsx
+++ b/data/PENDAFTARAN KOLEKTIF_Cybersecurity Training JABAR (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dedi Setiawan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\cyberSecurity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6176396A-1F4B-442A-A3EA-93E620AE5C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF2D01-6B07-4D76-A65E-C4322F670EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>FORM PENDAFTARAN KOLEKTIF PROGRAM CYBERSECURITY TRAINING 2021</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Belum</t>
+  </si>
+  <si>
+    <t>Alfonsus Ferdy Mahardeka Putra</t>
+  </si>
+  <si>
+    <t>Theresia Baru</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +364,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -634,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1022"/>
+  <dimension ref="A1:E1024"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -651,32 +658,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -694,20 +701,20 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1046,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,57 +1294,89 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="1:5" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>34</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="18">
+        <v>11</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>35</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="18">
+        <v>11</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="31" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B51" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-    </row>
-    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+    </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2309,15 +2348,17 @@
     <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
